--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15345</v>
+        <v>70939</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mariana Gonçalves</t>
+          <t>Maysa Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>10500.6</v>
+        <v>4379.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79866</v>
+        <v>14783</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauã Cardoso</t>
+          <t>Fernando Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>10491.91</v>
+        <v>3800.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34193</v>
+        <v>89144</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Mendes</t>
+          <t>Sra. Ana Beatriz Dias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>4866.96</v>
+        <v>11627.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56486</v>
+        <v>63925</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitor Hugo da Mota</t>
+          <t>Sofia Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>9591.889999999999</v>
+        <v>8847.219999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90998</v>
+        <v>20899</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Bryan Martins</t>
+          <t>Isadora Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>11071.78</v>
+        <v>7820.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55240</v>
+        <v>88469</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ryan Souza</t>
+          <t>Maria Fernanda da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>9942.1</v>
+        <v>5302.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14355</v>
+        <v>79083</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorenzo Azevedo</t>
+          <t>Dr. João Pedro Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>6957.87</v>
+        <v>3889.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89584</v>
+        <v>46864</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alícia Gonçalves</t>
+          <t>Ana Clara Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>6159.69</v>
+        <v>7733.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73668</v>
+        <v>49648</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Agatha Vieira</t>
+          <t>Alice Lopes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>7222.43</v>
+        <v>4690.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13573</v>
+        <v>97219</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eloah Azevedo</t>
+          <t>Yasmin Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>5617.92</v>
+        <v>3915.61</v>
       </c>
     </row>
   </sheetData>
